--- a/country_analysis2.xlsx
+++ b/country_analysis2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/grte3865_ox_ac_uk/Documents/Placement planning/Proposal/Data/MSc Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0F67FDCE8F79A8D366075C52F3A08A331CB9B420" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_0F67FDCE8F79A8D366075C52F3A08A331CB9B420" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65E53542-68DF-A243-8DFD-C46261B7358F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,10 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,9 +440,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -450,154 +460,154 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1640</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>2793</v>
       </c>
     </row>

--- a/country_analysis2.xlsx
+++ b/country_analysis2.xlsx
@@ -1,95 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/grte3865_ox_ac_uk/Documents/Placement planning/Proposal/Data/MSc Project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0F67FDCE8F79A8D366075C52F3A08A331CB9B420" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65E53542-68DF-A243-8DFD-C46261B7358F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Total Projects</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>St. Maarten</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +52,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -140,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -226,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -261,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -437,177 +350,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aruba</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Curacao</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
+      </c>
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="B18">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2">
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>St. Maarten</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B20">
         <v>2793</v>
       </c>
     </row>

--- a/country_analysis2.xlsx
+++ b/country_analysis2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,6 +559,11 @@
         <v>2793</v>
       </c>
     </row>
+    <row r="21">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/country_analysis2.xlsx
+++ b/country_analysis2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,11 +559,6 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/country_analysis2.xlsx
+++ b/country_analysis2.xlsx
@@ -372,17 +372,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Aruba</t>
         </is>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B3">
@@ -392,37 +392,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B5">
-        <v>201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B6">
-        <v>1640</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B7">
@@ -432,17 +432,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>St. Maarten</t>
         </is>
       </c>
       <c r="B9">
@@ -452,31 +452,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -492,11 +492,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -512,41 +512,41 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>St. Maarten</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="20">

--- a/country_analysis2.xlsx
+++ b/country_analysis2.xlsx
@@ -372,17 +372,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Aruba</t>
         </is>
       </c>
       <c r="B3">
@@ -392,37 +392,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B7">
@@ -432,17 +432,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>St. Maarten</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="B9">
@@ -452,31 +452,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -492,11 +492,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -512,41 +512,41 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B18">
-        <v>201</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>St. Maarten</t>
         </is>
       </c>
       <c r="B19">
-        <v>1640</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">

--- a/country_analysis2.xlsx
+++ b/country_analysis2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>201</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>1640</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
@@ -436,13 +436,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B9">
@@ -452,17 +452,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B11">
@@ -472,27 +472,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="B14">
@@ -502,47 +502,47 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>St. Maarten</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="B19">
@@ -552,11 +552,81 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>St. Maarten</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="B20">
-        <v>2793</v>
+      <c r="B26">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/country_analysis2.xlsx
+++ b/country_analysis2.xlsx
@@ -1,21 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/grte3865_ox_ac_uk/Documents/Placement planning/Proposal/Data/MSc Project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6D76FDCE8F79A8D366075C52F33A0A33376EC26B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BC15EF5-8354-D94C-B513-56B97B481707}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Total Projects</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>St. Maarten</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +158,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +210,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +244,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +279,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,280 +455,230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Projects</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>201</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Aruba</t>
-        </is>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bolivia</t>
-        </is>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1143</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>3192</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>155</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>65</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Dominica</t>
-        </is>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dominican Republic</t>
-        </is>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>El Salvador</t>
-        </is>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Guadeloupe</t>
-        </is>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Guatemala</t>
-        </is>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Guyana</t>
-        </is>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Haiti</t>
-        </is>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
         <v>13</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Jamaica</t>
-        </is>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
         <v>153</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Nicaragua</t>
-        </is>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Panama</t>
-        </is>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
         <v>23</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
         <v>30</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
         <v>147</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>St. Maarten</t>
-        </is>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
         <v>4147</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
         <v>2</v>

--- a/country_analysis2.xlsx
+++ b/country_analysis2.xlsx
@@ -1,116 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/grte3865_ox_ac_uk/Documents/Placement planning/Proposal/Data/MSc Project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_6D76FDCE8F79A8D366075C52F33A0A33376EC26B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BC15EF5-8354-D94C-B513-56B97B481707}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Total Projects</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>St. Maarten</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -244,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -455,230 +350,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
       </c>
       <c r="B2">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aruba</t>
+        </is>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
       </c>
       <c r="B5">
         <v>1143</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="B6">
         <v>3192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
       </c>
       <c r="B7">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
       </c>
       <c r="B8">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Dominica</t>
+        </is>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dominican Republic</t>
+        </is>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Guadeloupe</t>
+        </is>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>17</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>18</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
       </c>
       <c r="B18">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
       </c>
       <c r="B20">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>21</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>22</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
       </c>
       <c r="B22">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>23</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
       </c>
       <c r="B23">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>24</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
       </c>
       <c r="B24">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>25</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>St. Maarten</t>
+        </is>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>26</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
       </c>
       <c r="B26">
         <v>4147</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
       </c>
       <c r="B27">
         <v>2</v>
